--- a/docs/simdlinq_graph.xlsx
+++ b/docs/simdlinq_graph.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\S04451\Documents\GitHub\SimdLinq\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{068CBCA2-7491-4E1A-A040-AE47F069AC91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2410E23A-A2D9-49C0-9F4D-78DF99C0D1E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="21720" yWindow="3555" windowWidth="30690" windowHeight="24060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
